--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-06_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-06_end.xlsx
@@ -408,7 +408,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="아미야"]   메딕! 의료팀!!
+    <t xml:space="preserve">[name="아미야"]   메딕! 의료부!!
 </t>
   </si>
 </sst>
